--- a/Tester Results/MERGED_EFFECT_STRENGTHS_TOP10_TOP20_MEANDIFF.xlsx
+++ b/Tester Results/MERGED_EFFECT_STRENGTHS_TOP10_TOP20_MEANDIFF.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.161217539378459</v>
+        <v>0.09736983360171769</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3919291897261274</v>
+        <v>-0.2884147432456601</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2124228395061729</v>
+        <v>-0.2106481481481481</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3309156378600804</v>
+        <v>0.330606995884775</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1324606215410813</v>
+        <v>0.0588164251207729</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3201823470980578</v>
+        <v>0.5776748971193442</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.06671810699588487</v>
+        <v>-0.08276748971193415</v>
       </c>
       <c r="E3" t="n">
-        <v>0.237644032921807</v>
+        <v>0.206008230452678</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06411238825031917</v>
+        <v>-0.07235641438539986</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7121115368241817</v>
+        <v>0.8660896403650042</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1001800411522634</v>
+        <v>0.09776234567901232</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0932716049382698</v>
+        <v>-0.1245987654320935</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1845466155810984</v>
+        <v>-0.1547638217928073</v>
       </c>
       <c r="C5" t="n">
-        <v>18.35343408542643</v>
+        <v>16.04716630882089</v>
       </c>
       <c r="D5" t="n">
-        <v>0.244701646090535</v>
+        <v>0.2421296296296296</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.2624279835391</v>
+        <v>-21.8948868312757</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1828011919965944</v>
+        <v>-0.153864734299517</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5951343656875</v>
+        <v>15.48043093576668</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2452417695473251</v>
+        <v>0.243261316872428</v>
       </c>
       <c r="E6" t="n">
-        <v>-22.31518364197532</v>
+        <v>-21.97915288065845</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1775010642826735</v>
+        <v>-0.1553274288781534</v>
       </c>
       <c r="C7" t="n">
-        <v>16.10454138285796</v>
+        <v>15.33205307300055</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2451131687242798</v>
+        <v>0.2427469135802469</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.18692217078188</v>
+        <v>-19.81592947530864</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1464452958705833</v>
+        <v>-0.1300724637681159</v>
       </c>
       <c r="C8" t="n">
-        <v>5.999141549595564</v>
+        <v>5.5702208132045</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2218106995884773</v>
+        <v>0.2218364197530864</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.812875308641978</v>
+        <v>-7.696570370370367</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1908045977011494</v>
+        <v>0.1541331186258722</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.75844868383709</v>
+        <v>-8.383214260153892</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08055555555555549</v>
+        <v>-0.08153292181069949</v>
       </c>
       <c r="E9" t="n">
-        <v>6.277278806584377</v>
+        <v>6.54703338477367</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.08514261387824607</v>
+        <v>-0.06967257112184644</v>
       </c>
       <c r="C10" t="n">
-        <v>868.9522744607621</v>
+        <v>755.9506749642151</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2335390946502057</v>
+        <v>0.2318415637860082</v>
       </c>
       <c r="E10" t="n">
-        <v>-2036.945427263374</v>
+        <v>-2015.691945627572</v>
       </c>
     </row>
     <row r="11">
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04501752391777969</v>
+        <v>0.001246390028879718</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.7401449275362317</v>
+        <v>-0.1992635658914708</v>
       </c>
       <c r="D11" t="n">
         <v>0.03567538126361658</v>

--- a/Tester Results/MERGED_EFFECT_STRENGTHS_TOP10_TOP20_MEANDIFF.xlsx
+++ b/Tester Results/MERGED_EFFECT_STRENGTHS_TOP10_TOP20_MEANDIFF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,25 +631,6 @@
         <v>-2015.691945627572</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.001246390028879718</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.1992635658914708</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.03567538126361658</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.5235185185185181</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
